--- a/BackTest/2019-10-07 BackTest XRP.xlsx
+++ b/BackTest/2019-10-07 BackTest XRP.xlsx
@@ -757,9 +757,11 @@
         <v>-248574.4534</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>304</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -7010,9 +7012,11 @@
         <v>-185124.75634133</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>303</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -7047,9 +7051,11 @@
         <v>-195993.17734133</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>304</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7084,9 +7090,11 @@
         <v>-195993.17734133</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>303</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7433,9 +7441,11 @@
         <v>-195775.9196413301</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>304</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7509,9 +7519,11 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>304</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7546,9 +7558,11 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>304</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7583,9 +7597,11 @@
         <v>-164348.2108413301</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>304</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7659,9 +7675,11 @@
         <v>-164015.6475413301</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>304</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7696,9 +7714,11 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>305</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7733,9 +7753,11 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>304</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7809,9 +7831,11 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>304</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7846,9 +7870,11 @@
         <v>-301097.67374133</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>304</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7883,9 +7909,11 @@
         <v>-303097.67374133</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>304</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7959,9 +7987,11 @@
         <v>-300949.9747571201</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>304</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -8464,9 +8494,11 @@
         <v>-300948.4747571201</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>304</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8540,9 +8572,11 @@
         <v>-300932.07475712</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>305</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8651,9 +8685,11 @@
         <v>-301855.1462571201</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>304</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8957,9 +8993,11 @@
         <v>-222726.7441571201</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>305</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8994,9 +9032,11 @@
         <v>-222726.7441571201</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>305</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9142,9 +9182,11 @@
         <v>-223626.7441571201</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>305</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -9218,11 +9260,9 @@
         <v>-221873.4326817201</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -9294,11 +9334,9 @@
         <v>-221934.6526817201</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -12258,9 +12296,11 @@
         <v>-371786.8466055702</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>305</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12295,9 +12335,11 @@
         <v>-371786.8466055702</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>305</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12369,9 +12411,11 @@
         <v>-413805.2432055702</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>305</v>
+      </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -14902,11 +14946,9 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -14941,11 +14983,9 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -14980,11 +15020,9 @@
         <v>-710439.7395160899</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -16651,11 +16689,9 @@
         <v>-815719.6083873198</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -16729,9 +16765,11 @@
         <v>-810293.0093873198</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>304</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -16766,9 +16804,11 @@
         <v>-860076.6060873198</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>305</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -20430,9 +20470,11 @@
         <v>-573017.5548249095</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>306</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -20740,9 +20782,11 @@
         <v>-529531.8134249096</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>306</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -20816,9 +20860,11 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>306</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -20853,9 +20899,11 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>305</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -20890,9 +20938,11 @@
         <v>-529753.0177249096</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>305</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -21278,9 +21328,11 @@
         <v>-351177.8372249096</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>306</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -22943,16 +22995,18 @@
         <v>7646368.01140419</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L594" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
       <c r="M594" t="inlineStr"/>
     </row>
     <row r="595">
@@ -22978,11 +23032,15 @@
         <v>7022414.14172919</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23011,11 +23069,15 @@
         <v>6697126.40402919</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23048,7 +23110,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23081,7 +23147,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23114,7 +23184,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23147,7 +23221,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23180,7 +23258,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23213,7 +23295,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23246,7 +23332,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23279,7 +23369,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23312,7 +23406,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23345,7 +23443,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23378,7 +23480,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23411,7 +23517,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23444,7 +23554,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23477,7 +23591,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23510,7 +23628,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23539,11 +23661,15 @@
         <v>8304929.77595421</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23572,11 +23698,15 @@
         <v>8304929.77595421</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23605,11 +23735,15 @@
         <v>8543671.4444008</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23638,11 +23772,15 @@
         <v>8261311.041307311</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23671,11 +23809,15 @@
         <v>8261311.041307311</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23704,11 +23846,15 @@
         <v>8674821.27739615</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23737,11 +23883,15 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23770,11 +23920,15 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23803,11 +23957,15 @@
         <v>8584440.148596151</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23836,11 +23994,15 @@
         <v>8161882.126596151</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23869,11 +24031,15 @@
         <v>8161882.126596151</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23906,7 +24072,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23939,7 +24109,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23972,7 +24146,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24005,7 +24183,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24038,7 +24220,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24071,7 +24257,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24104,7 +24294,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24137,7 +24331,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24170,7 +24368,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24203,7 +24405,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24236,7 +24442,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24269,7 +24479,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24302,7 +24516,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24335,7 +24553,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24368,7 +24590,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24401,7 +24627,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24434,7 +24664,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24467,7 +24701,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24500,7 +24738,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24533,7 +24775,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24566,7 +24812,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24599,7 +24849,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24632,7 +24886,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24665,7 +24923,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24698,7 +24960,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24731,7 +24997,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24764,7 +25034,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24797,7 +25071,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24830,7 +25108,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24863,7 +25145,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24896,7 +25182,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24929,7 +25219,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24962,7 +25256,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24995,7 +25293,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25028,7 +25330,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25061,7 +25367,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25094,7 +25404,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25127,7 +25441,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25160,7 +25478,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25193,7 +25515,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25226,7 +25552,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25259,7 +25589,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25292,7 +25626,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25325,7 +25663,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25358,7 +25700,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25391,7 +25737,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25424,7 +25774,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25457,7 +25811,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25490,7 +25848,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25523,7 +25885,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25556,7 +25922,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25589,7 +25959,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25622,7 +25996,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25655,7 +26033,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25688,7 +26070,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25721,7 +26107,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25754,7 +26144,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25787,7 +26181,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25820,7 +26218,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25853,7 +26255,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25886,7 +26292,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25919,7 +26329,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25952,7 +26366,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25985,7 +26403,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26018,7 +26440,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26051,7 +26477,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26084,7 +26514,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26117,7 +26551,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -26150,7 +26588,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26183,7 +26625,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26216,7 +26662,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26249,7 +26699,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26282,7 +26736,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26315,7 +26773,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26348,7 +26810,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26381,7 +26847,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26414,7 +26884,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26447,7 +26921,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26480,7 +26958,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26513,7 +26995,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26546,7 +27032,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26579,7 +27069,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26612,7 +27106,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26645,7 +27143,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26678,7 +27180,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26711,7 +27217,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26744,7 +27254,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26777,7 +27291,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26810,7 +27328,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26843,7 +27365,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26876,7 +27402,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26909,7 +27439,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26942,7 +27476,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26975,7 +27513,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27008,7 +27550,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27041,7 +27587,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27074,7 +27624,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27107,7 +27661,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -27140,7 +27698,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -27173,7 +27735,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27206,7 +27772,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27239,7 +27809,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27272,7 +27846,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27305,7 +27883,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27338,7 +27920,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27371,7 +27957,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27404,7 +27994,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27437,7 +28031,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27470,7 +28068,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27503,7 +28105,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27536,7 +28142,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27569,7 +28179,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27602,7 +28216,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27635,7 +28253,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27668,7 +28290,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27701,7 +28327,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27734,7 +28364,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27767,7 +28401,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27800,7 +28438,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27833,7 +28475,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27866,7 +28512,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27899,7 +28549,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27932,7 +28586,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27965,7 +28623,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27998,7 +28660,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28031,7 +28697,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28064,7 +28734,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28097,7 +28771,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28130,7 +28808,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28163,7 +28845,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28196,7 +28882,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28229,7 +28919,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28262,7 +28956,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28295,7 +28993,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28328,7 +29030,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28361,7 +29067,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28394,7 +29104,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28427,7 +29141,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28460,7 +29178,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28493,7 +29215,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28526,7 +29252,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28559,7 +29289,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28592,7 +29326,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28625,7 +29363,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28658,7 +29400,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28691,7 +29437,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28724,7 +29474,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28757,7 +29511,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28790,7 +29548,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28823,7 +29585,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28856,7 +29622,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28889,7 +29659,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28922,7 +29696,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28955,7 +29733,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28988,7 +29770,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29021,7 +29807,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29054,7 +29844,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29087,7 +29881,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29120,7 +29918,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -29153,7 +29955,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29186,7 +29992,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -29219,7 +30029,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -29252,7 +30066,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -29285,7 +30103,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -29318,7 +30140,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -29351,7 +30177,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -29384,7 +30214,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -29417,7 +30251,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -29450,7 +30288,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -29483,7 +30325,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29516,7 +30362,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29549,7 +30399,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29582,7 +30436,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29615,7 +30473,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29648,7 +30510,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29681,7 +30547,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29714,7 +30584,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29747,7 +30621,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -29780,7 +30658,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -29813,7 +30695,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -29846,7 +30732,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -29879,7 +30769,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -29912,7 +30806,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29945,7 +30843,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29978,7 +30880,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -30011,7 +30917,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -30044,7 +30954,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -30077,7 +30991,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -30110,7 +31028,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -30143,7 +31065,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -30176,7 +31102,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -30209,7 +31139,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -30242,7 +31176,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -30275,7 +31213,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -30308,7 +31250,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -30341,7 +31287,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -30374,7 +31324,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -30407,7 +31361,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -30440,7 +31398,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -30473,7 +31435,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -30506,7 +31472,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -30539,7 +31509,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30572,7 +31546,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -30605,7 +31583,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -30638,7 +31620,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -30671,7 +31657,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -30704,7 +31694,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -30737,7 +31731,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -30770,7 +31768,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30803,7 +31805,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30836,7 +31842,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30869,7 +31879,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30902,7 +31916,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30935,7 +31953,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30968,7 +31990,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -31001,7 +32027,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -31034,7 +32064,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -31067,7 +32101,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -31100,7 +32138,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -31133,7 +32175,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -31166,7 +32212,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -31199,7 +32249,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -31232,7 +32286,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -31265,7 +32323,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -31298,7 +32360,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -31331,7 +32397,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -31364,7 +32434,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -31397,7 +32471,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -31430,7 +32508,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -31463,7 +32545,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31496,7 +32582,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31529,7 +32619,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31562,7 +32656,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31595,7 +32693,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31628,7 +32730,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31661,7 +32767,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31694,7 +32804,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31727,7 +32841,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31760,7 +32878,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31793,7 +32915,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31826,7 +32952,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31859,7 +32989,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31892,7 +33026,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31925,7 +33063,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31958,7 +33100,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31991,7 +33137,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -32024,7 +33174,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -32057,7 +33211,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -32090,7 +33248,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -32123,7 +33285,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -32156,7 +33322,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -32189,7 +33359,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -32222,7 +33396,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -32255,7 +33433,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32288,7 +33470,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32321,7 +33507,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32354,7 +33544,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32387,7 +33581,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32420,7 +33618,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32453,7 +33655,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32486,7 +33692,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32519,7 +33729,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32552,7 +33766,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32585,7 +33803,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32618,7 +33840,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32651,7 +33877,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32684,7 +33914,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32717,7 +33951,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32750,7 +33988,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32783,7 +34025,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32816,7 +34062,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32849,7 +34099,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32882,7 +34136,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32915,7 +34173,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32948,7 +34210,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32981,7 +34247,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -33014,7 +34284,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -33047,7 +34321,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -33080,7 +34358,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -33113,7 +34395,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -33146,7 +34432,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -33179,7 +34469,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -33212,7 +34506,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -33245,7 +34543,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -33278,7 +34580,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -33311,7 +34617,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -33344,7 +34654,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -33377,7 +34691,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -33410,7 +34728,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -33443,7 +34765,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -33476,7 +34802,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -33509,7 +34839,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -33542,7 +34876,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -33575,7 +34913,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -33608,7 +34950,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -33641,7 +34987,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -33674,7 +35024,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -33707,7 +35061,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -33740,7 +35098,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -33773,7 +35135,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -33806,7 +35172,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -33839,7 +35209,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -33872,7 +35246,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -33905,7 +35283,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33938,7 +35320,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33971,7 +35357,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -34004,7 +35394,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -34037,7 +35431,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -34070,7 +35468,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -34103,7 +35505,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -34136,7 +35542,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -34169,7 +35579,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -34202,7 +35616,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -34235,7 +35653,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -34268,7 +35690,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -34301,7 +35727,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -34334,7 +35764,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -34367,7 +35801,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -34400,7 +35838,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -34433,7 +35875,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -34466,7 +35912,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34499,7 +35949,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34532,7 +35986,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -34565,7 +36023,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -34598,7 +36060,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34631,7 +36097,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -34664,7 +36134,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34697,7 +36171,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34730,7 +36208,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34763,7 +36245,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34796,7 +36282,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34829,7 +36319,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34862,7 +36356,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34895,7 +36393,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34928,7 +36430,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34961,7 +36467,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34994,7 +36504,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35027,7 +36541,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35060,7 +36578,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35093,7 +36615,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35126,7 +36652,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -35159,7 +36689,11 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -35192,7 +36726,11 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -35225,7 +36763,11 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -35258,7 +36800,11 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -35291,7 +36837,11 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -35324,7 +36874,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35357,7 +36911,11 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35390,7 +36948,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35423,7 +36985,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35456,7 +37022,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35489,7 +37059,11 @@
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35522,7 +37096,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35555,7 +37133,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35588,7 +37170,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35621,7 +37207,11 @@
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35654,7 +37244,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35687,7 +37281,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35720,7 +37318,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35753,7 +37355,11 @@
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35786,7 +37392,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35819,7 +37429,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35852,7 +37466,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -35885,7 +37503,11 @@
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -35918,7 +37540,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -35951,7 +37577,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -35984,7 +37614,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -36017,7 +37651,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -36050,7 +37688,11 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -36083,7 +37725,11 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -36116,7 +37762,11 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -36149,7 +37799,11 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -36182,7 +37836,11 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -36215,7 +37873,11 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36248,7 +37910,11 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36281,7 +37947,11 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36314,7 +37984,11 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36347,7 +38021,11 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36380,7 +38058,11 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36413,7 +38095,11 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -36446,7 +38132,11 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -36479,7 +38169,11 @@
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36512,7 +38206,11 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36545,7 +38243,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36578,7 +38280,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36611,7 +38317,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36644,7 +38354,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36677,7 +38391,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36710,7 +38428,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -36743,7 +38465,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -36776,7 +38502,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -36809,7 +38539,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -36842,7 +38576,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -36875,7 +38613,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -36908,7 +38650,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -36941,7 +38687,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -36974,7 +38724,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -37007,7 +38761,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -37040,7 +38798,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -37073,7 +38835,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -37106,7 +38872,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -37139,7 +38909,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -37172,7 +38946,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -37205,7 +38983,11 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -37238,7 +39020,11 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -37271,7 +39057,11 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -37304,7 +39094,11 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -37337,7 +39131,11 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -37370,7 +39168,11 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -37403,7 +39205,11 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -37436,7 +39242,11 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -37469,7 +39279,11 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -37502,7 +39316,11 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -37535,7 +39353,11 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -37568,7 +39390,11 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -37601,7 +39427,11 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -37634,7 +39464,11 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -37667,7 +39501,11 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -37700,7 +39538,11 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -37733,7 +39575,11 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -37766,7 +39612,11 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -37799,7 +39649,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -37832,7 +39686,11 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -37865,7 +39723,11 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -37898,7 +39760,11 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -37931,7 +39797,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -37964,7 +39834,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -37997,7 +39871,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -38030,7 +39908,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -38063,7 +39945,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -38096,7 +39982,11 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -38129,7 +40019,11 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -38162,7 +40056,11 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -38195,7 +40093,11 @@
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -38228,7 +40130,11 @@
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -38261,7 +40167,11 @@
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -38294,7 +40204,11 @@
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -38327,7 +40241,11 @@
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -38360,7 +40278,11 @@
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -38389,14 +40311,16 @@
         <v>12943783.1269603</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
-      <c r="L1062" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1062" t="inlineStr"/>
       <c r="M1062" t="inlineStr"/>
     </row>
     <row r="1063">
@@ -38422,7 +40346,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38455,7 +40379,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38488,7 +40412,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38521,7 +40445,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38554,7 +40478,7 @@
         <v>13776014.23893841</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38587,7 +40511,7 @@
         <v>13906206.9758318</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38620,7 +40544,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38653,7 +40577,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38686,7 +40610,7 @@
         <v>13786077.05980892</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -38719,7 +40643,7 @@
         <v>13326509.99960892</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -38752,7 +40676,7 @@
         <v>13326509.99960892</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -38785,7 +40709,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38818,7 +40742,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38851,7 +40775,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38884,7 +40808,7 @@
         <v>13373450.24440892</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38917,7 +40841,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38950,7 +40874,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38983,7 +40907,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -39016,7 +40940,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -39049,7 +40973,7 @@
         <v>13415079.76340892</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -39082,7 +41006,7 @@
         <v>13369768.29650892</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -39115,7 +41039,7 @@
         <v>13444085.95160891</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -39148,7 +41072,7 @@
         <v>12883895.72580891</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -39181,7 +41105,7 @@
         <v>12883895.72580891</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -39214,7 +41138,7 @@
         <v>13003690.33150891</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -39247,7 +41171,7 @@
         <v>12897013.12410891</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -39280,7 +41204,7 @@
         <v>13037355.29250892</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -39313,7 +41237,7 @@
         <v>13037355.29250892</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -39346,7 +41270,7 @@
         <v>13067564.14030891</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -39379,7 +41303,7 @@
         <v>13067564.14030891</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -39412,7 +41336,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -39445,7 +41369,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -39478,7 +41402,7 @@
         <v>12512687.95674266</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -39511,7 +41435,7 @@
         <v>12489413.20694266</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -39544,7 +41468,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -39577,7 +41501,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -39610,7 +41534,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -39643,7 +41567,7 @@
         <v>12607871.37554266</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -39676,7 +41600,7 @@
         <v>12508394.53475888</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -39709,7 +41633,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -39742,7 +41666,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -39775,7 +41699,7 @@
         <v>12832076.77025197</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39808,7 +41732,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39841,7 +41765,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39874,7 +41798,7 @@
         <v>12366546.63156643</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39907,7 +41831,7 @@
         <v>12233720.22006643</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39940,7 +41864,7 @@
         <v>12233720.22006643</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -40039,7 +41963,7 @@
         <v>12162493.75666643</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -40138,7 +42062,7 @@
         <v>12162493.75666643</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -40237,7 +42161,7 @@
         <v>12190825.89226643</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -40270,7 +42194,7 @@
         <v>12190825.89226643</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -40534,7 +42458,7 @@
         <v>12289539.48606643</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -40567,7 +42491,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -40600,7 +42524,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -40633,7 +42557,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -40666,7 +42590,7 @@
         <v>12232056.96517487</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -40699,7 +42623,7 @@
         <v>12107409.47537487</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -40732,7 +42656,7 @@
         <v>12161477.46503045</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -40765,7 +42689,7 @@
         <v>12161477.46503045</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -40798,7 +42722,7 @@
         <v>12161477.46503045</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40831,7 +42755,7 @@
         <v>12708745.06838904</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40864,7 +42788,7 @@
         <v>12708745.06838904</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40897,7 +42821,7 @@
         <v>12690974.22903888</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40930,7 +42854,7 @@
         <v>12785073.42065326</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40963,7 +42887,7 @@
         <v>12775671.77825326</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40996,7 +42920,7 @@
         <v>12775671.77825326</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -41029,7 +42953,7 @@
         <v>12721542.29535327</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -41062,7 +42986,7 @@
         <v>12721542.29535327</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -41095,7 +43019,7 @@
         <v>12721542.29535327</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -41128,7 +43052,7 @@
         <v>12733891.50165327</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -41161,7 +43085,7 @@
         <v>12733891.50165327</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -41194,7 +43118,7 @@
         <v>13039915.23055327</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -41227,7 +43151,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -41260,7 +43184,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -41293,7 +43217,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -41326,7 +43250,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -41359,7 +43283,7 @@
         <v>12988858.80355327</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -41392,7 +43316,7 @@
         <v>13920186.78764427</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -41425,7 +43349,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -41458,7 +43382,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -41491,7 +43415,7 @@
         <v>13542722.76414427</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -41524,7 +43448,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -41557,7 +43481,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -41590,7 +43514,7 @@
         <v>13509273.75074427</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -41623,7 +43547,7 @@
         <v>13044123.84684368</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -41656,7 +43580,7 @@
         <v>13044123.84684368</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -41722,7 +43646,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -41755,7 +43679,7 @@
         <v>13171532.84194309</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -41788,7 +43712,7 @@
         <v>13152963.25414309</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -41821,7 +43745,7 @@
         <v>13189596.62094309</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -41854,7 +43778,7 @@
         <v>13094956.58314309</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -41887,7 +43811,7 @@
         <v>13094956.58314309</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -41920,7 +43844,7 @@
         <v>13094973.51364309</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -41986,7 +43910,7 @@
         <v>13044919.15757059</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -42019,7 +43943,7 @@
         <v>12759493.40707059</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -42052,7 +43976,7 @@
         <v>12759493.40707059</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -42118,7 +44042,7 @@
         <v>11890132.26617059</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -43042,7 +44966,7 @@
         <v>12378153.45544029</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
